--- a/flows/BOIL_fund_flow_data.xlsx
+++ b/flows/BOIL_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3118"/>
+  <dimension ref="A1:B3133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31615,6 +31615,156 @@
         <v>0.73366594</v>
       </c>
     </row>
+    <row r="3119">
+      <c r="A3119" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3120">
+      <c r="A3120" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3121">
+      <c r="A3121" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3121" t="n">
+        <v>-56.119846</v>
+      </c>
+    </row>
+    <row r="3122">
+      <c r="A3122" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3122" t="n">
+        <v>6.910437999999999e-05</v>
+      </c>
+    </row>
+    <row r="3123">
+      <c r="A3123" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3124">
+      <c r="A3124" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3124" t="n">
+        <v>-37.65834</v>
+      </c>
+    </row>
+    <row r="3125">
+      <c r="A3125" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3126">
+      <c r="A3126" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3126" t="n">
+        <v>-7.341682</v>
+      </c>
+    </row>
+    <row r="3127">
+      <c r="A3127" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3128">
+      <c r="A3128" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3128" t="n">
+        <v>33.07316</v>
+      </c>
+    </row>
+    <row r="3129">
+      <c r="A3129" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3129" t="n">
+        <v>11.802213</v>
+      </c>
+    </row>
+    <row r="3130">
+      <c r="A3130" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3130" t="n">
+        <v>33.220795</v>
+      </c>
+    </row>
+    <row r="3131">
+      <c r="A3131" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3132">
+      <c r="A3132" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3132" t="n">
+        <v>17.592491</v>
+      </c>
+    </row>
+    <row r="3133">
+      <c r="A3133" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B3133" t="n">
+        <v>3.3909945</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
